--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -29,9 +32,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -62,34 +62,46 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.735+/-0.002</t>
   </si>
   <si>
     <t>0.682+/-0.0</t>
   </si>
   <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.896+/-0.005</t>
-  </si>
-  <si>
-    <t>0.754+/-0.018</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.345+/-0.005</t>
-  </si>
-  <si>
-    <t>0.246+/-0.014</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>8.283+/-1.155</t>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.895+/-0.005</t>
+  </si>
+  <si>
+    <t>0.753+/-0.016</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>0.344+/-0.005</t>
+  </si>
+  <si>
+    <t>0.248+/-0.015</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>6.568+/-0.436</t>
   </si>
   <si>
     <t>0.661+/-0.003</t>
@@ -119,7 +131,7 @@
     <t>0.232</t>
   </si>
   <si>
-    <t>1.584+/-0.182</t>
+    <t>1.182+/-0.046</t>
   </si>
   <si>
     <t>0.725+/-0.002</t>
@@ -149,37 +161,43 @@
     <t>0.343</t>
   </si>
   <si>
-    <t>5.037+/-0.492</t>
-  </si>
-  <si>
-    <t>0.631+/-0.003</t>
-  </si>
-  <si>
-    <t>0.627+/-0.0</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.945+/-0.01</t>
-  </si>
-  <si>
-    <t>0.905+/-0.09</t>
-  </si>
-  <si>
-    <t>0.897</t>
-  </si>
-  <si>
-    <t>0.033+/-0.007</t>
-  </si>
-  <si>
-    <t>0.024+/-0.012</t>
+    <t>4.362+/-0.096</t>
+  </si>
+  <si>
+    <t>0.631+/-0.002</t>
+  </si>
+  <si>
+    <t>0.626+/-0.0</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.951+/-0.011</t>
+  </si>
+  <si>
+    <t>0.886+/-0.085</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>0.034+/-0.005</t>
+  </si>
+  <si>
+    <t>0.021+/-0.009</t>
   </si>
   <si>
     <t>0.025</t>
   </si>
   <si>
-    <t>0.781+/-0.049</t>
+    <t>0.726+/-0.039</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
   </si>
   <si>
     <t>0.827+/-0.001</t>
@@ -209,7 +227,7 @@
     <t>0.073</t>
   </si>
   <si>
-    <t>9.032+/-0.698</t>
+    <t>6.518+/-0.082</t>
   </si>
   <si>
     <t>0.807+/-0.001</t>
@@ -239,7 +257,7 @@
     <t>0.069</t>
   </si>
   <si>
-    <t>1.705+/-0.098</t>
+    <t>1.068+/-0.024</t>
   </si>
   <si>
     <t>0.825+/-0.001</t>
@@ -266,37 +284,37 @@
     <t>0.095</t>
   </si>
   <si>
-    <t>6.015+/-0.389</t>
+    <t>3.964+/-0.082</t>
   </si>
   <si>
     <t>0.804+/-0.001</t>
   </si>
   <si>
-    <t>0.803+/-0.0</t>
+    <t>0.802+/-0.0</t>
   </si>
   <si>
     <t>0.803</t>
   </si>
   <si>
-    <t>0.938+/-0.014</t>
-  </si>
-  <si>
-    <t>0.619+/-0.423</t>
+    <t>0.936+/-0.031</t>
+  </si>
+  <si>
+    <t>0.705+/-0.385</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>0.016+/-0.003</t>
-  </si>
-  <si>
-    <t>0.008+/-0.008</t>
+    <t>0.015+/-0.004</t>
+  </si>
+  <si>
+    <t>0.007+/-0.005</t>
   </si>
   <si>
     <t>0.009</t>
   </si>
   <si>
-    <t>0.905+/-0.189</t>
+    <t>0.674+/-0.018</t>
   </si>
 </sst>
 </file>
@@ -685,16 +703,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.6189445196211096</v>
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -702,19 +720,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.6189445196211096</v>
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -722,19 +740,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.6190476190476191</v>
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -742,19 +760,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -762,19 +780,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -782,19 +800,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -802,19 +820,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -822,19 +840,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -842,19 +860,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -862,19 +880,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -912,19 +930,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.8014433919711321</v>
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -932,19 +950,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.8014433919711321</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -952,19 +970,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>0.8015873015873016</v>
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -972,19 +990,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -992,19 +1010,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1012,19 +1030,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1032,19 +1050,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1052,19 +1070,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1072,19 +1090,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1092,19 +1110,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -74,7 +74,10 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.735+/-0.002</t>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.735+/-0.001</t>
   </si>
   <si>
     <t>0.682+/-0.0</t>
@@ -83,25 +86,25 @@
     <t>0.682</t>
   </si>
   <si>
-    <t>0.895+/-0.005</t>
-  </si>
-  <si>
-    <t>0.753+/-0.016</t>
-  </si>
-  <si>
-    <t>0.745</t>
-  </si>
-  <si>
-    <t>0.344+/-0.005</t>
-  </si>
-  <si>
-    <t>0.248+/-0.015</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>6.568+/-0.436</t>
+    <t>0.897+/-0.006</t>
+  </si>
+  <si>
+    <t>0.753+/-0.018</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.345+/-0.007</t>
+  </si>
+  <si>
+    <t>0.247+/-0.013</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>8.874+/-0.783</t>
   </si>
   <si>
     <t>0.661+/-0.003</t>
@@ -131,7 +134,7 @@
     <t>0.232</t>
   </si>
   <si>
-    <t>1.182+/-0.046</t>
+    <t>1.452+/-0.049</t>
   </si>
   <si>
     <t>0.725+/-0.002</t>
@@ -140,58 +143,58 @@
     <t>0.684+/-0.0</t>
   </si>
   <si>
-    <t>0.696</t>
+    <t>0.697</t>
   </si>
   <si>
     <t>0.786+/-0.006</t>
   </si>
   <si>
-    <t>0.681+/-0.025</t>
-  </si>
-  <si>
-    <t>0.71</t>
+    <t>0.682+/-0.026</t>
+  </si>
+  <si>
+    <t>0.711</t>
   </si>
   <si>
     <t>0.382+/-0.005</t>
   </si>
   <si>
-    <t>0.32+/-0.021</t>
+    <t>0.319+/-0.021</t>
   </si>
   <si>
     <t>0.343</t>
   </si>
   <si>
-    <t>4.362+/-0.096</t>
+    <t>5.274+/-0.1</t>
   </si>
   <si>
     <t>0.631+/-0.002</t>
   </si>
   <si>
-    <t>0.626+/-0.0</t>
-  </si>
-  <si>
-    <t>0.628</t>
-  </si>
-  <si>
-    <t>0.951+/-0.011</t>
-  </si>
-  <si>
-    <t>0.886+/-0.085</t>
-  </si>
-  <si>
-    <t>0.929</t>
-  </si>
-  <si>
-    <t>0.034+/-0.005</t>
-  </si>
-  <si>
-    <t>0.021+/-0.009</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>0.726+/-0.039</t>
+    <t>0.627+/-0.0</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.948+/-0.007</t>
+  </si>
+  <si>
+    <t>0.902+/-0.062</t>
+  </si>
+  <si>
+    <t>0.909</t>
+  </si>
+  <si>
+    <t>0.034+/-0.004</t>
+  </si>
+  <si>
+    <t>0.023+/-0.008</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.983+/-0.021</t>
   </si>
   <si>
     <t>0.801+/-0.0</t>
@@ -227,7 +230,7 @@
     <t>0.073</t>
   </si>
   <si>
-    <t>6.518+/-0.082</t>
+    <t>8.94+/-0.52</t>
   </si>
   <si>
     <t>0.807+/-0.001</t>
@@ -257,7 +260,7 @@
     <t>0.069</t>
   </si>
   <si>
-    <t>1.068+/-0.024</t>
+    <t>1.65+/-0.049</t>
   </si>
   <si>
     <t>0.825+/-0.001</t>
@@ -284,7 +287,7 @@
     <t>0.095</t>
   </si>
   <si>
-    <t>3.964+/-0.082</t>
+    <t>4.749+/-0.441</t>
   </si>
   <si>
     <t>0.804+/-0.001</t>
@@ -293,28 +296,28 @@
     <t>0.802+/-0.0</t>
   </si>
   <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>0.936+/-0.031</t>
-  </si>
-  <si>
-    <t>0.705+/-0.385</t>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.935+/-0.024</t>
+  </si>
+  <si>
+    <t>0.75+/-0.344</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>0.015+/-0.004</t>
-  </si>
-  <si>
-    <t>0.007+/-0.005</t>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t>0.674+/-0.018</t>
+    <t>0.016+/-0.004</t>
+  </si>
+  <si>
+    <t>0.007+/-0.006</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>0.939+/-0.057</t>
   </si>
 </sst>
 </file>
@@ -703,16 +706,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -723,16 +726,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -743,16 +746,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -763,16 +766,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -783,16 +786,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -803,16 +806,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -823,16 +826,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -843,16 +846,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -863,16 +866,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -880,19 +883,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -930,19 +933,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -950,19 +953,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -970,19 +973,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -993,16 +996,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1013,16 +1016,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1033,16 +1036,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1053,16 +1056,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1073,16 +1076,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1093,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1113,16 +1116,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
